--- a/public_html/time/youngminko_timesheet.xlsx
+++ b/public_html/time/youngminko_timesheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10123"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ymko\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masonko/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADA9DD4-3655-1E4C-A143-0019A7598729}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="748" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="23540" tabRatio="748" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="17" r:id="rId1"/>
@@ -26,7 +27,7 @@
     <sheet name="Apr-08" sheetId="16" r:id="rId12"/>
     <sheet name="Total" sheetId="15" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="63">
   <si>
     <t>Status</t>
   </si>
@@ -195,11 +196,44 @@
   <si>
     <t>PRJ566 - Timesheet - Group ___5____</t>
   </si>
+  <si>
+    <t>PRJ666 - Timesheet - Group ___5____</t>
+  </si>
+  <si>
+    <t>Posted On:           2019-02-11</t>
+  </si>
+  <si>
+    <t>Name:                   Youngmin Ko</t>
+  </si>
+  <si>
+    <t>FEB-09-2019</t>
+  </si>
+  <si>
+    <t>FEB-10-2019</t>
+  </si>
+  <si>
+    <t>Completed Data Flow Diagram: sign-in, sign-up, forgot password</t>
+  </si>
+  <si>
+    <t>Completed Business Rule about sign-in, sign-up, forgot password</t>
+  </si>
+  <si>
+    <t>Update progressive report, meeting minute document</t>
+  </si>
+  <si>
+    <t>Learned and planned how to draw a Data Flow Diagram</t>
+  </si>
+  <si>
+    <t>FEB-07-2019</t>
+  </si>
+  <si>
+    <t>FEB-08-2019</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
@@ -2327,6 +2361,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2362,6 +2413,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2537,29 +2605,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="156" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" customWidth="1"/>
-    <col min="5" max="5" width="62.140625" customWidth="1"/>
-    <col min="8" max="8" width="42.28515625" customWidth="1"/>
-    <col min="9" max="9" width="8.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
+    <col min="5" max="5" width="62.1640625" customWidth="1"/>
+    <col min="8" max="8" width="42.33203125" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:9" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B2" s="8"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="10"/>
     </row>
-    <row r="3" spans="2:9" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:9" ht="16" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
         <v>23</v>
       </c>
@@ -2567,7 +2635,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="12"/>
     </row>
-    <row r="4" spans="2:9" ht="21" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:9" ht="21" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
         <v>19</v>
       </c>
@@ -2578,7 +2646,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:9" ht="16" x14ac:dyDescent="0.25">
       <c r="B5" s="36" t="s">
         <v>22</v>
       </c>
@@ -2586,7 +2654,7 @@
       <c r="D5" s="37"/>
       <c r="E5" s="38"/>
     </row>
-    <row r="6" spans="2:9" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:9" ht="16" x14ac:dyDescent="0.25">
       <c r="B6" s="11"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -2595,7 +2663,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:9" ht="16" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
         <v>12</v>
       </c>
@@ -2603,7 +2671,7 @@
       <c r="D7" s="1"/>
       <c r="E7" s="12"/>
     </row>
-    <row r="8" spans="2:9" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:9" ht="16" x14ac:dyDescent="0.25">
       <c r="B8" s="11"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -2612,7 +2680,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:9" ht="16" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
         <v>1</v>
       </c>
@@ -2624,7 +2692,7 @@
       <c r="H9" s="42"/>
       <c r="I9" s="48"/>
     </row>
-    <row r="10" spans="2:9" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:9" ht="16" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
         <v>2</v>
       </c>
@@ -2638,7 +2706,7 @@
       </c>
       <c r="I10" s="48"/>
     </row>
-    <row r="11" spans="2:9" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:9" ht="16" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
         <v>0</v>
       </c>
@@ -2652,7 +2720,7 @@
       </c>
       <c r="I11" s="48"/>
     </row>
-    <row r="12" spans="2:9" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:9" ht="16" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
         <v>8</v>
       </c>
@@ -2666,7 +2734,7 @@
       </c>
       <c r="I12" s="48"/>
     </row>
-    <row r="13" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="43"/>
       <c r="C13" s="13"/>
       <c r="D13" s="43" t="s">
@@ -2678,7 +2746,7 @@
       </c>
       <c r="I13" s="48"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B14" s="39" t="s">
         <v>6</v>
       </c>
@@ -2696,7 +2764,7 @@
       </c>
       <c r="I14" s="48"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B15" s="39" t="s">
         <v>6</v>
       </c>
@@ -2714,7 +2782,7 @@
       </c>
       <c r="I15" s="48"/>
     </row>
-    <row r="16" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B16" s="39"/>
       <c r="C16" s="39"/>
       <c r="D16" s="39"/>
@@ -2726,7 +2794,7 @@
       </c>
       <c r="I16" s="48"/>
     </row>
-    <row r="17" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B17" s="39" t="s">
         <v>6</v>
       </c>
@@ -2744,7 +2812,7 @@
       </c>
       <c r="I17" s="48"/>
     </row>
-    <row r="18" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B18" s="39" t="s">
         <v>6</v>
       </c>
@@ -2762,7 +2830,7 @@
       </c>
       <c r="I18" s="48"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B19" s="39" t="s">
         <v>6</v>
       </c>
@@ -2780,7 +2848,7 @@
       </c>
       <c r="I19" s="48"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B20" s="39" t="s">
         <v>6</v>
       </c>
@@ -2798,7 +2866,7 @@
       </c>
       <c r="I20" s="48"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B21" s="39" t="s">
         <v>6</v>
       </c>
@@ -2814,27 +2882,27 @@
       <c r="H21" s="48"/>
       <c r="I21" s="48"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
       <c r="H22" s="48"/>
       <c r="I22" s="48"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
       <c r="H23" s="48"/>
       <c r="I23" s="48"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H10" location="'Jan-21'!A1" display="'Jan-21'!A1"/>
-    <hyperlink ref="H11" location="'Jan-28'!A1" display="'Jan-28'!A1"/>
-    <hyperlink ref="H12" location="'Feb-04'!A1" display="'Feb-04'!A1"/>
-    <hyperlink ref="H13" location="'Feb-11'!A1" display="'Feb-11'!A1"/>
-    <hyperlink ref="H14" location="'Feb-17'!A1" display="'Feb-17'!A1"/>
-    <hyperlink ref="H15" location="'Feb-25'!A1" display="'Feb-25'!A1"/>
-    <hyperlink ref="H16" location="'Mar-11'!A1" display="'Mar-11'!A1"/>
-    <hyperlink ref="H17" location="'Mar-18'!A1" display="'Mar-18'!A1"/>
-    <hyperlink ref="H18" location="'Mar-25'!A1" display="'Mar-25'!A1"/>
-    <hyperlink ref="H19" location="'Apr-01'!A1" display="'Apr-01'!A1"/>
-    <hyperlink ref="H20" location="'Apr-08'!A1" display="'Apr-08'!A1"/>
+    <hyperlink ref="H10" location="'Jan-21'!A1" display="'Jan-21'!A1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H11" location="'Jan-28'!A1" display="'Jan-28'!A1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="H12" location="'Feb-04'!A1" display="'Feb-04'!A1" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="H13" location="'Feb-11'!A1" display="'Feb-11'!A1" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="H14" location="'Feb-17'!A1" display="'Feb-17'!A1" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="H15" location="'Feb-25'!A1" display="'Feb-25'!A1" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="H16" location="'Mar-11'!A1" display="'Mar-11'!A1" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="H17" location="'Mar-18'!A1" display="'Mar-18'!A1" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="H18" location="'Mar-25'!A1" display="'Mar-25'!A1" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="H19" location="'Apr-01'!A1" display="'Apr-01'!A1" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="H20" location="'Apr-08'!A1" display="'Apr-08'!A1" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2843,23 +2911,23 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:U54"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="0.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="61.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="0.85546875" customWidth="1"/>
+    <col min="2" max="2" width="0.5" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="61.5" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="0.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2882,7 +2950,7 @@
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
     </row>
-    <row r="2" spans="1:21" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="18"/>
       <c r="C2" s="19"/>
@@ -2905,7 +2973,7 @@
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="21"/>
       <c r="C3" s="15" t="s">
@@ -2932,7 +3000,7 @@
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
     </row>
-    <row r="4" spans="1:21" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="23"/>
       <c r="C4" s="17"/>
@@ -2955,7 +3023,7 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="23"/>
       <c r="C5" s="16" t="s">
@@ -2979,7 +3047,7 @@
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
     </row>
-    <row r="6" spans="1:21" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="23"/>
       <c r="C6" s="16"/>
@@ -3002,7 +3070,7 @@
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="23"/>
       <c r="C7" s="16" t="s">
@@ -3027,7 +3095,7 @@
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
     </row>
-    <row r="8" spans="1:21" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" ht="3" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="23"/>
       <c r="C8" s="16"/>
@@ -3050,7 +3118,7 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
     </row>
-    <row r="9" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="23"/>
       <c r="C9" s="16" t="s">
@@ -3075,7 +3143,7 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
     </row>
-    <row r="10" spans="1:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="24"/>
       <c r="C10" s="25" t="s">
@@ -3100,7 +3168,7 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
     </row>
-    <row r="11" spans="1:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -3123,7 +3191,7 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
     </row>
-    <row r="12" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -3140,7 +3208,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="28" t="s">
@@ -3164,7 +3232,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="4"/>
@@ -3182,7 +3250,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="4"/>
@@ -3198,7 +3266,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="4"/>
@@ -3214,7 +3282,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="4"/>
@@ -3230,7 +3298,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="4"/>
@@ -3246,7 +3314,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="4"/>
@@ -3262,7 +3330,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="4"/>
@@ -3280,7 +3348,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="4"/>
@@ -3296,7 +3364,7 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="4"/>
@@ -3312,7 +3380,7 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="4"/>
@@ -3328,7 +3396,7 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="4"/>
@@ -3344,7 +3412,7 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="4"/>
@@ -3360,7 +3428,7 @@
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="4"/>
@@ -3376,7 +3444,7 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="4"/>
@@ -3392,7 +3460,7 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="4"/>
@@ -3408,7 +3476,7 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="4"/>
@@ -3424,7 +3492,7 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="4"/>
@@ -3440,7 +3508,7 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
     </row>
-    <row r="31" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="5"/>
@@ -3456,7 +3524,7 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
     </row>
-    <row r="32" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -3472,7 +3540,7 @@
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
     </row>
-    <row r="33" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -3492,7 +3560,7 @@
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -3508,7 +3576,7 @@
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -3524,7 +3592,7 @@
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -3540,7 +3608,7 @@
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -3556,7 +3624,7 @@
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -3572,7 +3640,7 @@
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -3588,7 +3656,7 @@
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -3604,7 +3672,7 @@
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -3620,7 +3688,7 @@
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -3636,7 +3704,7 @@
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -3652,7 +3720,7 @@
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -3668,7 +3736,7 @@
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -3684,7 +3752,7 @@
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -3700,7 +3768,7 @@
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -3716,7 +3784,7 @@
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -3732,7 +3800,7 @@
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -3748,7 +3816,7 @@
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -3764,7 +3832,7 @@
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -3780,15 +3848,15 @@
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
     </row>
@@ -3801,23 +3869,23 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:U54"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="0.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="61.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="0.85546875" customWidth="1"/>
+    <col min="2" max="2" width="0.5" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="61.5" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="0.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3840,7 +3908,7 @@
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
     </row>
-    <row r="2" spans="1:21" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="18"/>
       <c r="C2" s="19"/>
@@ -3863,7 +3931,7 @@
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="21"/>
       <c r="C3" s="15" t="s">
@@ -3890,7 +3958,7 @@
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
     </row>
-    <row r="4" spans="1:21" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="23"/>
       <c r="C4" s="17"/>
@@ -3913,7 +3981,7 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="23"/>
       <c r="C5" s="16" t="s">
@@ -3937,7 +4005,7 @@
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
     </row>
-    <row r="6" spans="1:21" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="23"/>
       <c r="C6" s="16"/>
@@ -3960,7 +4028,7 @@
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="23"/>
       <c r="C7" s="16" t="s">
@@ -3985,7 +4053,7 @@
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
     </row>
-    <row r="8" spans="1:21" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" ht="3" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="23"/>
       <c r="C8" s="16"/>
@@ -4008,7 +4076,7 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
     </row>
-    <row r="9" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="23"/>
       <c r="C9" s="16" t="s">
@@ -4033,7 +4101,7 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
     </row>
-    <row r="10" spans="1:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="24"/>
       <c r="C10" s="25" t="s">
@@ -4058,7 +4126,7 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
     </row>
-    <row r="11" spans="1:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -4081,7 +4149,7 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
     </row>
-    <row r="12" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -4098,7 +4166,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="28" t="s">
@@ -4122,7 +4190,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="4"/>
@@ -4140,7 +4208,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="4"/>
@@ -4156,7 +4224,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="4"/>
@@ -4172,7 +4240,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="4"/>
@@ -4188,7 +4256,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="4"/>
@@ -4204,7 +4272,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="4"/>
@@ -4220,7 +4288,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="4"/>
@@ -4238,7 +4306,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="4"/>
@@ -4254,7 +4322,7 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="4"/>
@@ -4270,7 +4338,7 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="4"/>
@@ -4286,7 +4354,7 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="4"/>
@@ -4302,7 +4370,7 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="4"/>
@@ -4318,7 +4386,7 @@
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="4"/>
@@ -4334,7 +4402,7 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="4"/>
@@ -4350,7 +4418,7 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="4"/>
@@ -4366,7 +4434,7 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="4"/>
@@ -4382,7 +4450,7 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="4"/>
@@ -4398,7 +4466,7 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
     </row>
-    <row r="31" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="5"/>
@@ -4414,7 +4482,7 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
     </row>
-    <row r="32" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -4430,7 +4498,7 @@
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
     </row>
-    <row r="33" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -4450,7 +4518,7 @@
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -4466,7 +4534,7 @@
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -4482,7 +4550,7 @@
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -4498,7 +4566,7 @@
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -4514,7 +4582,7 @@
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -4530,7 +4598,7 @@
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -4546,7 +4614,7 @@
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -4562,7 +4630,7 @@
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -4578,7 +4646,7 @@
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -4594,7 +4662,7 @@
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -4610,7 +4678,7 @@
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -4626,7 +4694,7 @@
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -4642,7 +4710,7 @@
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -4658,7 +4726,7 @@
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -4674,7 +4742,7 @@
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -4690,7 +4758,7 @@
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -4706,7 +4774,7 @@
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -4722,7 +4790,7 @@
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -4738,15 +4806,15 @@
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
     </row>
@@ -4759,23 +4827,23 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:U54"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="0.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="61.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="0.85546875" customWidth="1"/>
+    <col min="2" max="2" width="0.5" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="61.5" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="0.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -4800,7 +4868,7 @@
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
     </row>
-    <row r="2" spans="1:21" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="18"/>
       <c r="C2" s="19"/>
@@ -4823,7 +4891,7 @@
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="21"/>
       <c r="C3" s="15" t="s">
@@ -4850,7 +4918,7 @@
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
     </row>
-    <row r="4" spans="1:21" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="23"/>
       <c r="C4" s="17"/>
@@ -4873,7 +4941,7 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="23"/>
       <c r="C5" s="16" t="s">
@@ -4897,7 +4965,7 @@
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
     </row>
-    <row r="6" spans="1:21" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="23"/>
       <c r="C6" s="16"/>
@@ -4920,7 +4988,7 @@
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="23"/>
       <c r="C7" s="16" t="s">
@@ -4945,7 +5013,7 @@
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
     </row>
-    <row r="8" spans="1:21" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" ht="3" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="23"/>
       <c r="C8" s="16"/>
@@ -4968,7 +5036,7 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
     </row>
-    <row r="9" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="23"/>
       <c r="C9" s="16" t="s">
@@ -4993,7 +5061,7 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
     </row>
-    <row r="10" spans="1:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="24"/>
       <c r="C10" s="25" t="s">
@@ -5018,7 +5086,7 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
     </row>
-    <row r="11" spans="1:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -5041,7 +5109,7 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
     </row>
-    <row r="12" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -5058,7 +5126,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="28" t="s">
@@ -5082,7 +5150,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="4"/>
@@ -5100,7 +5168,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="4"/>
@@ -5116,7 +5184,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="4"/>
@@ -5132,7 +5200,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="4"/>
@@ -5148,7 +5216,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="4"/>
@@ -5164,7 +5232,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="4"/>
@@ -5180,7 +5248,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="4"/>
@@ -5198,7 +5266,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="4"/>
@@ -5214,7 +5282,7 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="4"/>
@@ -5230,7 +5298,7 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="4"/>
@@ -5246,7 +5314,7 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="4"/>
@@ -5262,7 +5330,7 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="4"/>
@@ -5278,7 +5346,7 @@
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="4"/>
@@ -5294,7 +5362,7 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="4"/>
@@ -5310,7 +5378,7 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="4"/>
@@ -5326,7 +5394,7 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="4"/>
@@ -5342,7 +5410,7 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="4"/>
@@ -5358,7 +5426,7 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
     </row>
-    <row r="31" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="5"/>
@@ -5374,7 +5442,7 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
     </row>
-    <row r="32" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -5390,7 +5458,7 @@
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
     </row>
-    <row r="33" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -5410,7 +5478,7 @@
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -5426,7 +5494,7 @@
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -5442,7 +5510,7 @@
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -5458,7 +5526,7 @@
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -5474,7 +5542,7 @@
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -5490,7 +5558,7 @@
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -5506,7 +5574,7 @@
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -5522,7 +5590,7 @@
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -5538,7 +5606,7 @@
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -5554,7 +5622,7 @@
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -5570,7 +5638,7 @@
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -5586,7 +5654,7 @@
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -5602,7 +5670,7 @@
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -5618,7 +5686,7 @@
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -5634,7 +5702,7 @@
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -5650,7 +5718,7 @@
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -5666,7 +5734,7 @@
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -5682,7 +5750,7 @@
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -5698,15 +5766,15 @@
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
     </row>
@@ -5719,25 +5787,25 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="0.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="61.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="0.85546875" customWidth="1"/>
+    <col min="2" max="2" width="0.5" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="61.5" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="0.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -5760,7 +5828,7 @@
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
     </row>
-    <row r="2" spans="1:21" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="18"/>
       <c r="C2" s="19"/>
@@ -5783,7 +5851,7 @@
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="21"/>
       <c r="C3" s="15" t="s">
@@ -5810,7 +5878,7 @@
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
     </row>
-    <row r="4" spans="1:21" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="23"/>
       <c r="C4" s="17"/>
@@ -5833,7 +5901,7 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="23"/>
       <c r="C5" s="16" t="s">
@@ -5857,7 +5925,7 @@
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
     </row>
-    <row r="6" spans="1:21" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="23"/>
       <c r="C6" s="16"/>
@@ -5880,7 +5948,7 @@
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="23"/>
       <c r="C7" s="16" t="s">
@@ -5905,7 +5973,7 @@
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
     </row>
-    <row r="8" spans="1:21" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" ht="3" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="23"/>
       <c r="C8" s="16"/>
@@ -5928,7 +5996,7 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
     </row>
-    <row r="9" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="23"/>
       <c r="C9" s="16" t="s">
@@ -5953,7 +6021,7 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
     </row>
-    <row r="10" spans="1:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="24"/>
       <c r="C10" s="25" t="s">
@@ -5978,7 +6046,7 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
     </row>
-    <row r="11" spans="1:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -6001,7 +6069,7 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
     </row>
-    <row r="12" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -6018,7 +6086,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -6034,7 +6102,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -6043,7 +6111,7 @@
       </c>
       <c r="F14" s="41">
         <f>'Jan-21'!F33+'Jan-28'!F33+'Feb-04'!F33+'Feb-11'!F33+'Feb-17'!F33+'Feb-25'!F33+'Mar-11'!F33+'Mar-18'!F33+'Mar-25'!F33+'Apr-01'!F33+'Apr-08'!F33</f>
-        <v>6.8333333333333339</v>
+        <v>12.833333333333334</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -6054,7 +6122,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -6070,7 +6138,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -6086,7 +6154,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -6102,7 +6170,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -6118,7 +6186,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -6134,7 +6202,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -6150,7 +6218,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -6166,7 +6234,7 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -6182,7 +6250,7 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -6198,7 +6266,7 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -6214,7 +6282,7 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -6230,7 +6298,7 @@
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -6246,7 +6314,7 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -6262,7 +6330,7 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -6278,7 +6346,7 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -6294,7 +6362,7 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -6310,7 +6378,7 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -6326,7 +6394,7 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -6342,15 +6410,15 @@
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
     </row>
@@ -6368,25 +6436,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="141" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="0.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="61.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="0.85546875" customWidth="1"/>
+    <col min="2" max="2" width="0.5" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="61.5" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="0.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -6409,7 +6477,7 @@
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
     </row>
-    <row r="2" spans="1:21" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="18"/>
       <c r="C2" s="19"/>
@@ -6432,7 +6500,7 @@
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="21"/>
       <c r="C3" s="15" t="s">
@@ -6459,7 +6527,7 @@
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
     </row>
-    <row r="4" spans="1:21" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="23"/>
       <c r="C4" s="17"/>
@@ -6482,7 +6550,7 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="23"/>
       <c r="C5" s="50" t="s">
@@ -6506,7 +6574,7 @@
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
     </row>
-    <row r="6" spans="1:21" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="23"/>
       <c r="C6" s="16"/>
@@ -6529,7 +6597,7 @@
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="23"/>
       <c r="C7" s="50" t="s">
@@ -6554,7 +6622,7 @@
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
     </row>
-    <row r="8" spans="1:21" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" ht="3" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="23"/>
       <c r="C8" s="16"/>
@@ -6577,7 +6645,7 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
     </row>
-    <row r="9" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="23"/>
       <c r="C9" s="50" t="s">
@@ -6602,7 +6670,7 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
     </row>
-    <row r="10" spans="1:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="24"/>
       <c r="C10" s="25" t="s">
@@ -6627,7 +6695,7 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
     </row>
-    <row r="11" spans="1:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -6650,7 +6718,7 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
     </row>
-    <row r="12" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -6667,7 +6735,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="28" t="s">
@@ -6691,7 +6759,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="4" t="s">
@@ -6715,7 +6783,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="51" t="s">
@@ -6739,7 +6807,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="4" t="s">
@@ -6763,7 +6831,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="4" t="s">
@@ -6787,7 +6855,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="4" t="s">
@@ -6811,7 +6879,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="4"/>
@@ -6827,7 +6895,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="4"/>
@@ -6845,7 +6913,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="4"/>
@@ -6861,7 +6929,7 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="4"/>
@@ -6877,7 +6945,7 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="4"/>
@@ -6893,7 +6961,7 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="4"/>
@@ -6909,7 +6977,7 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="4"/>
@@ -6925,7 +6993,7 @@
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="4"/>
@@ -6941,7 +7009,7 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="4"/>
@@ -6957,7 +7025,7 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="4"/>
@@ -6973,7 +7041,7 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="4"/>
@@ -6989,7 +7057,7 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="4"/>
@@ -7005,7 +7073,7 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
     </row>
-    <row r="31" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="5"/>
@@ -7021,7 +7089,7 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
     </row>
-    <row r="32" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -7037,7 +7105,7 @@
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
     </row>
-    <row r="33" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -7057,7 +7125,7 @@
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -7073,7 +7141,7 @@
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -7091,7 +7159,7 @@
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -7107,7 +7175,7 @@
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -7123,7 +7191,7 @@
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -7139,7 +7207,7 @@
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -7155,7 +7223,7 @@
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -7171,7 +7239,7 @@
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -7187,7 +7255,7 @@
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -7203,7 +7271,7 @@
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -7219,7 +7287,7 @@
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -7235,7 +7303,7 @@
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -7251,7 +7319,7 @@
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -7267,7 +7335,7 @@
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -7283,7 +7351,7 @@
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -7299,7 +7367,7 @@
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -7315,7 +7383,7 @@
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -7331,7 +7399,7 @@
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -7347,15 +7415,15 @@
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
     </row>
@@ -7368,25 +7436,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView zoomScale="161" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="0.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="61.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="0.85546875" customWidth="1"/>
+    <col min="2" max="2" width="0.5" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="61.5" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="0.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -7409,7 +7477,7 @@
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
     </row>
-    <row r="2" spans="1:21" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="18"/>
       <c r="C2" s="19"/>
@@ -7432,7 +7500,7 @@
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="21"/>
       <c r="C3" s="15" t="s">
@@ -7459,7 +7527,7 @@
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
     </row>
-    <row r="4" spans="1:21" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="23"/>
       <c r="C4" s="17"/>
@@ -7482,7 +7550,7 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="23"/>
       <c r="C5" s="50" t="s">
@@ -7506,7 +7574,7 @@
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
     </row>
-    <row r="6" spans="1:21" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="23"/>
       <c r="C6" s="16"/>
@@ -7529,7 +7597,7 @@
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="23"/>
       <c r="C7" s="50" t="s">
@@ -7554,7 +7622,7 @@
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
     </row>
-    <row r="8" spans="1:21" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" ht="3" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="23"/>
       <c r="C8" s="16"/>
@@ -7577,7 +7645,7 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
     </row>
-    <row r="9" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="23"/>
       <c r="C9" s="50" t="s">
@@ -7602,7 +7670,7 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
     </row>
-    <row r="10" spans="1:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="24"/>
       <c r="C10" s="25" t="s">
@@ -7627,7 +7695,7 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
     </row>
-    <row r="11" spans="1:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -7650,7 +7718,7 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
     </row>
-    <row r="12" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -7667,7 +7735,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="28" t="s">
@@ -7691,7 +7759,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="4" t="s">
@@ -7715,7 +7783,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="51" t="s">
@@ -7739,7 +7807,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="4" t="s">
@@ -7763,7 +7831,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="4" t="s">
@@ -7787,7 +7855,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="4" t="s">
@@ -7811,7 +7879,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="4"/>
@@ -7827,7 +7895,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="4"/>
@@ -7845,7 +7913,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="4"/>
@@ -7861,7 +7929,7 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="4"/>
@@ -7877,7 +7945,7 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="4"/>
@@ -7893,7 +7961,7 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="4"/>
@@ -7909,7 +7977,7 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="4"/>
@@ -7925,7 +7993,7 @@
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="4"/>
@@ -7941,7 +8009,7 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="4"/>
@@ -7957,7 +8025,7 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="4"/>
@@ -7973,7 +8041,7 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="4"/>
@@ -7989,7 +8057,7 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="4"/>
@@ -8005,7 +8073,7 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
     </row>
-    <row r="31" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="5"/>
@@ -8021,7 +8089,7 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
     </row>
-    <row r="32" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -8037,7 +8105,7 @@
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
     </row>
-    <row r="33" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -8057,7 +8125,7 @@
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -8073,7 +8141,7 @@
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -8091,7 +8159,7 @@
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -8107,7 +8175,7 @@
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -8123,7 +8191,7 @@
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -8139,7 +8207,7 @@
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -8155,7 +8223,7 @@
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -8171,7 +8239,7 @@
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -8187,7 +8255,7 @@
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -8203,7 +8271,7 @@
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -8219,7 +8287,7 @@
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -8235,7 +8303,7 @@
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -8251,7 +8319,7 @@
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -8267,7 +8335,7 @@
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -8283,7 +8351,7 @@
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -8299,7 +8367,7 @@
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -8315,7 +8383,7 @@
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -8331,7 +8399,7 @@
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -8347,15 +8415,15 @@
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
     </row>
@@ -8368,23 +8436,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U54"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="168" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="0.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="61.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="0.85546875" customWidth="1"/>
+    <col min="2" max="2" width="0.5" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="61.5" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="0.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -8407,7 +8477,7 @@
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
     </row>
-    <row r="2" spans="1:21" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="18"/>
       <c r="C2" s="19"/>
@@ -8430,7 +8500,7 @@
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="21"/>
       <c r="C3" s="15" t="s">
@@ -8457,7 +8527,7 @@
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
     </row>
-    <row r="4" spans="1:21" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="23"/>
       <c r="C4" s="17"/>
@@ -8480,11 +8550,11 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="23"/>
-      <c r="C5" s="16" t="s">
-        <v>14</v>
+      <c r="C5" s="50" t="s">
+        <v>52</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
@@ -8504,7 +8574,7 @@
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
     </row>
-    <row r="6" spans="1:21" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="23"/>
       <c r="C6" s="16"/>
@@ -8527,11 +8597,11 @@
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="23"/>
-      <c r="C7" s="16" t="s">
-        <v>17</v>
+      <c r="C7" s="50" t="s">
+        <v>53</v>
       </c>
       <c r="D7" s="32"/>
       <c r="E7" s="17"/>
@@ -8552,7 +8622,7 @@
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
     </row>
-    <row r="8" spans="1:21" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" ht="3" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="23"/>
       <c r="C8" s="16"/>
@@ -8575,11 +8645,11 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
     </row>
-    <row r="9" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="23"/>
-      <c r="C9" s="16" t="s">
-        <v>7</v>
+      <c r="C9" s="50" t="s">
+        <v>54</v>
       </c>
       <c r="D9" s="33"/>
       <c r="E9" s="17"/>
@@ -8600,7 +8670,7 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
     </row>
-    <row r="10" spans="1:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="24"/>
       <c r="C10" s="25" t="s">
@@ -8625,7 +8695,7 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
     </row>
-    <row r="11" spans="1:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -8648,7 +8718,7 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
     </row>
-    <row r="12" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -8665,7 +8735,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="28" t="s">
@@ -8689,14 +8759,20 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3" t="s">
-        <v>6</v>
+      <c r="C14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="3">
+        <v>60</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -8707,13 +8783,21 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="C15" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="3">
+        <v>180</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -8723,13 +8807,21 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="C16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="3">
+        <v>40</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -8739,13 +8831,21 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="C17" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="3">
+        <v>40</v>
+      </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -8755,13 +8855,21 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="C18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="3">
+        <v>40</v>
+      </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -8771,7 +8879,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="4"/>
@@ -8787,7 +8895,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="4"/>
@@ -8805,7 +8913,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="4"/>
@@ -8821,7 +8929,7 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="4"/>
@@ -8837,7 +8945,7 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="4"/>
@@ -8853,7 +8961,7 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="4"/>
@@ -8869,7 +8977,7 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="4"/>
@@ -8885,7 +8993,7 @@
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="4"/>
@@ -8901,7 +9009,7 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="4"/>
@@ -8917,7 +9025,7 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="4"/>
@@ -8933,7 +9041,7 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="4"/>
@@ -8949,7 +9057,7 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="4"/>
@@ -8965,7 +9073,7 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
     </row>
-    <row r="31" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="5"/>
@@ -8981,7 +9089,7 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
     </row>
-    <row r="32" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -8997,7 +9105,7 @@
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
     </row>
-    <row r="33" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -9006,7 +9114,7 @@
       </c>
       <c r="F33" s="41">
         <f>SUM(F14:F31)/60</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -9017,7 +9125,7 @@
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -9033,7 +9141,7 @@
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -9049,7 +9157,7 @@
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -9065,7 +9173,7 @@
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -9081,7 +9189,7 @@
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -9097,7 +9205,7 @@
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -9113,7 +9221,7 @@
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -9129,7 +9237,7 @@
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -9145,7 +9253,7 @@
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -9161,7 +9269,7 @@
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -9177,7 +9285,7 @@
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -9193,7 +9301,7 @@
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -9209,7 +9317,7 @@
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -9225,7 +9333,7 @@
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -9241,7 +9349,7 @@
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -9257,7 +9365,7 @@
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -9273,7 +9381,7 @@
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -9289,7 +9397,7 @@
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -9305,15 +9413,15 @@
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
     </row>
@@ -9326,23 +9434,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:U54"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="0.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="61.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="0.85546875" customWidth="1"/>
+    <col min="2" max="2" width="0.5" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="61.5" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="0.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -9365,7 +9473,7 @@
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
     </row>
-    <row r="2" spans="1:21" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="18"/>
       <c r="C2" s="19"/>
@@ -9388,7 +9496,7 @@
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="21"/>
       <c r="C3" s="15" t="s">
@@ -9415,7 +9523,7 @@
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
     </row>
-    <row r="4" spans="1:21" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="23"/>
       <c r="C4" s="17"/>
@@ -9438,7 +9546,7 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="23"/>
       <c r="C5" s="16" t="s">
@@ -9462,7 +9570,7 @@
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
     </row>
-    <row r="6" spans="1:21" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="23"/>
       <c r="C6" s="16"/>
@@ -9485,7 +9593,7 @@
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="23"/>
       <c r="C7" s="16" t="s">
@@ -9510,7 +9618,7 @@
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
     </row>
-    <row r="8" spans="1:21" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" ht="3" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="23"/>
       <c r="C8" s="16"/>
@@ -9533,7 +9641,7 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
     </row>
-    <row r="9" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="23"/>
       <c r="C9" s="16" t="s">
@@ -9558,7 +9666,7 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
     </row>
-    <row r="10" spans="1:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="24"/>
       <c r="C10" s="25" t="s">
@@ -9583,7 +9691,7 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
     </row>
-    <row r="11" spans="1:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -9606,7 +9714,7 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
     </row>
-    <row r="12" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -9623,7 +9731,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="28" t="s">
@@ -9647,7 +9755,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="4"/>
@@ -9665,7 +9773,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="4"/>
@@ -9681,7 +9789,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="4"/>
@@ -9697,7 +9805,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="4"/>
@@ -9713,7 +9821,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="4"/>
@@ -9729,7 +9837,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="4"/>
@@ -9745,7 +9853,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="4"/>
@@ -9763,7 +9871,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="4"/>
@@ -9779,7 +9887,7 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="4"/>
@@ -9795,7 +9903,7 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="4"/>
@@ -9811,7 +9919,7 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="4"/>
@@ -9827,7 +9935,7 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="4"/>
@@ -9843,7 +9951,7 @@
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="4"/>
@@ -9859,7 +9967,7 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="4"/>
@@ -9875,7 +9983,7 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="4"/>
@@ -9891,7 +9999,7 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="4"/>
@@ -9907,7 +10015,7 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="4"/>
@@ -9923,7 +10031,7 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
     </row>
-    <row r="31" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="5"/>
@@ -9939,7 +10047,7 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
     </row>
-    <row r="32" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -9955,7 +10063,7 @@
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
     </row>
-    <row r="33" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -9975,7 +10083,7 @@
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -9991,7 +10099,7 @@
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -10007,7 +10115,7 @@
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -10023,7 +10131,7 @@
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -10039,7 +10147,7 @@
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -10055,7 +10163,7 @@
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -10071,7 +10179,7 @@
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -10087,7 +10195,7 @@
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -10103,7 +10211,7 @@
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -10119,7 +10227,7 @@
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -10135,7 +10243,7 @@
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -10151,7 +10259,7 @@
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -10167,7 +10275,7 @@
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -10183,7 +10291,7 @@
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -10199,7 +10307,7 @@
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -10215,7 +10323,7 @@
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -10231,7 +10339,7 @@
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -10247,7 +10355,7 @@
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -10263,15 +10371,15 @@
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
     </row>
@@ -10284,23 +10392,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:U54"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="0.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="61.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="0.85546875" customWidth="1"/>
+    <col min="2" max="2" width="0.5" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="61.5" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="0.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -10323,7 +10431,7 @@
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
     </row>
-    <row r="2" spans="1:21" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="18"/>
       <c r="C2" s="19"/>
@@ -10346,7 +10454,7 @@
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="21"/>
       <c r="C3" s="15" t="s">
@@ -10373,7 +10481,7 @@
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
     </row>
-    <row r="4" spans="1:21" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="23"/>
       <c r="C4" s="17"/>
@@ -10396,7 +10504,7 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="23"/>
       <c r="C5" s="16" t="s">
@@ -10420,7 +10528,7 @@
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
     </row>
-    <row r="6" spans="1:21" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="23"/>
       <c r="C6" s="16"/>
@@ -10443,7 +10551,7 @@
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="23"/>
       <c r="C7" s="16" t="s">
@@ -10468,7 +10576,7 @@
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
     </row>
-    <row r="8" spans="1:21" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" ht="3" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="23"/>
       <c r="C8" s="16"/>
@@ -10491,7 +10599,7 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
     </row>
-    <row r="9" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="23"/>
       <c r="C9" s="16" t="s">
@@ -10516,7 +10624,7 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
     </row>
-    <row r="10" spans="1:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="24"/>
       <c r="C10" s="25" t="s">
@@ -10541,7 +10649,7 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
     </row>
-    <row r="11" spans="1:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -10564,7 +10672,7 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
     </row>
-    <row r="12" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -10581,7 +10689,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="28" t="s">
@@ -10605,7 +10713,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="4"/>
@@ -10623,7 +10731,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="4"/>
@@ -10639,7 +10747,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="4"/>
@@ -10655,7 +10763,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="4"/>
@@ -10671,7 +10779,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="4"/>
@@ -10687,7 +10795,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="4"/>
@@ -10703,7 +10811,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="4"/>
@@ -10721,7 +10829,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="4"/>
@@ -10737,7 +10845,7 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="4"/>
@@ -10753,7 +10861,7 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="4"/>
@@ -10769,7 +10877,7 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="4"/>
@@ -10785,7 +10893,7 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="4"/>
@@ -10801,7 +10909,7 @@
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="4"/>
@@ -10817,7 +10925,7 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="4"/>
@@ -10833,7 +10941,7 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="4"/>
@@ -10849,7 +10957,7 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="4"/>
@@ -10865,7 +10973,7 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="4"/>
@@ -10881,7 +10989,7 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
     </row>
-    <row r="31" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="5"/>
@@ -10897,7 +11005,7 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
     </row>
-    <row r="32" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -10913,7 +11021,7 @@
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
     </row>
-    <row r="33" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -10933,7 +11041,7 @@
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -10949,7 +11057,7 @@
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -10965,7 +11073,7 @@
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -10981,7 +11089,7 @@
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -10997,7 +11105,7 @@
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -11013,7 +11121,7 @@
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -11029,7 +11137,7 @@
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -11045,7 +11153,7 @@
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -11061,7 +11169,7 @@
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -11077,7 +11185,7 @@
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -11093,7 +11201,7 @@
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -11109,7 +11217,7 @@
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -11125,7 +11233,7 @@
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -11141,7 +11249,7 @@
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -11157,7 +11265,7 @@
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -11173,7 +11281,7 @@
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -11189,7 +11297,7 @@
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -11205,7 +11313,7 @@
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -11221,15 +11329,15 @@
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
     </row>
@@ -11242,23 +11350,23 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:U54"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="0.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="61.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="0.85546875" customWidth="1"/>
+    <col min="2" max="2" width="0.5" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="61.5" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="0.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -11281,7 +11389,7 @@
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
     </row>
-    <row r="2" spans="1:21" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="18"/>
       <c r="C2" s="19"/>
@@ -11304,7 +11412,7 @@
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="21"/>
       <c r="C3" s="15" t="s">
@@ -11331,7 +11439,7 @@
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
     </row>
-    <row r="4" spans="1:21" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="23"/>
       <c r="C4" s="17"/>
@@ -11354,7 +11462,7 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="23"/>
       <c r="C5" s="16" t="s">
@@ -11378,7 +11486,7 @@
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
     </row>
-    <row r="6" spans="1:21" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="23"/>
       <c r="C6" s="16"/>
@@ -11401,7 +11509,7 @@
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="23"/>
       <c r="C7" s="16" t="s">
@@ -11426,7 +11534,7 @@
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
     </row>
-    <row r="8" spans="1:21" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" ht="3" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="23"/>
       <c r="C8" s="16"/>
@@ -11449,7 +11557,7 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
     </row>
-    <row r="9" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="23"/>
       <c r="C9" s="16" t="s">
@@ -11474,7 +11582,7 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
     </row>
-    <row r="10" spans="1:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="24"/>
       <c r="C10" s="25" t="s">
@@ -11499,7 +11607,7 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
     </row>
-    <row r="11" spans="1:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -11522,7 +11630,7 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
     </row>
-    <row r="12" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -11539,7 +11647,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="28" t="s">
@@ -11563,7 +11671,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="4"/>
@@ -11581,7 +11689,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="4"/>
@@ -11597,7 +11705,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="4"/>
@@ -11613,7 +11721,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="4"/>
@@ -11629,7 +11737,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="4"/>
@@ -11645,7 +11753,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="4"/>
@@ -11661,7 +11769,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="4"/>
@@ -11679,7 +11787,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="4"/>
@@ -11695,7 +11803,7 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="4"/>
@@ -11711,7 +11819,7 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="4"/>
@@ -11727,7 +11835,7 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="4"/>
@@ -11743,7 +11851,7 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="4"/>
@@ -11759,7 +11867,7 @@
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="4"/>
@@ -11775,7 +11883,7 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="4"/>
@@ -11791,7 +11899,7 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="4"/>
@@ -11807,7 +11915,7 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="4"/>
@@ -11823,7 +11931,7 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="4"/>
@@ -11839,7 +11947,7 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
     </row>
-    <row r="31" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="5"/>
@@ -11855,7 +11963,7 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
     </row>
-    <row r="32" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -11871,7 +11979,7 @@
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
     </row>
-    <row r="33" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -11891,7 +11999,7 @@
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -11907,7 +12015,7 @@
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -11923,7 +12031,7 @@
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -11939,7 +12047,7 @@
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -11955,7 +12063,7 @@
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -11971,7 +12079,7 @@
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -11987,7 +12095,7 @@
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -12003,7 +12111,7 @@
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -12019,7 +12127,7 @@
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -12035,7 +12143,7 @@
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -12051,7 +12159,7 @@
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -12067,7 +12175,7 @@
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -12083,7 +12191,7 @@
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -12099,7 +12207,7 @@
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -12115,7 +12223,7 @@
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -12131,7 +12239,7 @@
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -12147,7 +12255,7 @@
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -12163,7 +12271,7 @@
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -12179,15 +12287,15 @@
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
     </row>
@@ -12200,23 +12308,23 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:U54"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="0.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="61.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="0.85546875" customWidth="1"/>
+    <col min="2" max="2" width="0.5" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="61.5" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="0.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -12239,7 +12347,7 @@
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
     </row>
-    <row r="2" spans="1:21" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="18"/>
       <c r="C2" s="19"/>
@@ -12262,7 +12370,7 @@
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="21"/>
       <c r="C3" s="15" t="s">
@@ -12289,7 +12397,7 @@
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
     </row>
-    <row r="4" spans="1:21" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="23"/>
       <c r="C4" s="17"/>
@@ -12312,7 +12420,7 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="23"/>
       <c r="C5" s="16" t="s">
@@ -12336,7 +12444,7 @@
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
     </row>
-    <row r="6" spans="1:21" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="23"/>
       <c r="C6" s="16"/>
@@ -12359,7 +12467,7 @@
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="23"/>
       <c r="C7" s="16" t="s">
@@ -12384,7 +12492,7 @@
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
     </row>
-    <row r="8" spans="1:21" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" ht="3" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="23"/>
       <c r="C8" s="16"/>
@@ -12407,7 +12515,7 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
     </row>
-    <row r="9" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="23"/>
       <c r="C9" s="16" t="s">
@@ -12432,7 +12540,7 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
     </row>
-    <row r="10" spans="1:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="24"/>
       <c r="C10" s="25" t="s">
@@ -12457,7 +12565,7 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
     </row>
-    <row r="11" spans="1:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -12480,7 +12588,7 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
     </row>
-    <row r="12" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -12497,7 +12605,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="28" t="s">
@@ -12521,7 +12629,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="4"/>
@@ -12539,7 +12647,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="4"/>
@@ -12555,7 +12663,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="4"/>
@@ -12571,7 +12679,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="4"/>
@@ -12587,7 +12695,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="4"/>
@@ -12603,7 +12711,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="4"/>
@@ -12619,7 +12727,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="4"/>
@@ -12637,7 +12745,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="4"/>
@@ -12653,7 +12761,7 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="4"/>
@@ -12669,7 +12777,7 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="4"/>
@@ -12685,7 +12793,7 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="4"/>
@@ -12701,7 +12809,7 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="4"/>
@@ -12717,7 +12825,7 @@
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="4"/>
@@ -12733,7 +12841,7 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="4"/>
@@ -12749,7 +12857,7 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="4"/>
@@ -12765,7 +12873,7 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="4"/>
@@ -12781,7 +12889,7 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="4"/>
@@ -12797,7 +12905,7 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
     </row>
-    <row r="31" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="5"/>
@@ -12813,7 +12921,7 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
     </row>
-    <row r="32" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -12829,7 +12937,7 @@
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
     </row>
-    <row r="33" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -12849,7 +12957,7 @@
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -12865,7 +12973,7 @@
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -12881,7 +12989,7 @@
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -12897,7 +13005,7 @@
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -12913,7 +13021,7 @@
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -12929,7 +13037,7 @@
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -12945,7 +13053,7 @@
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -12961,7 +13069,7 @@
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -12977,7 +13085,7 @@
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -12993,7 +13101,7 @@
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -13009,7 +13117,7 @@
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -13025,7 +13133,7 @@
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -13041,7 +13149,7 @@
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -13057,7 +13165,7 @@
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -13073,7 +13181,7 @@
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -13089,7 +13197,7 @@
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -13105,7 +13213,7 @@
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -13121,7 +13229,7 @@
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -13137,15 +13245,15 @@
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
     </row>
@@ -13158,23 +13266,23 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:U54"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="0.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="61.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="0.85546875" customWidth="1"/>
+    <col min="2" max="2" width="0.5" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="61.5" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="0.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -13197,7 +13305,7 @@
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
     </row>
-    <row r="2" spans="1:21" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" ht="3.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="18"/>
       <c r="C2" s="19"/>
@@ -13220,7 +13328,7 @@
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="21"/>
       <c r="C3" s="15" t="s">
@@ -13247,7 +13355,7 @@
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
     </row>
-    <row r="4" spans="1:21" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="23"/>
       <c r="C4" s="17"/>
@@ -13270,7 +13378,7 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="23"/>
       <c r="C5" s="16" t="s">
@@ -13294,7 +13402,7 @@
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
     </row>
-    <row r="6" spans="1:21" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="23"/>
       <c r="C6" s="16"/>
@@ -13317,7 +13425,7 @@
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="23"/>
       <c r="C7" s="16" t="s">
@@ -13342,7 +13450,7 @@
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
     </row>
-    <row r="8" spans="1:21" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" ht="3" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="23"/>
       <c r="C8" s="16"/>
@@ -13365,7 +13473,7 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
     </row>
-    <row r="9" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="23"/>
       <c r="C9" s="16" t="s">
@@ -13390,7 +13498,7 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
     </row>
-    <row r="10" spans="1:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="24"/>
       <c r="C10" s="25" t="s">
@@ -13415,7 +13523,7 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
     </row>
-    <row r="11" spans="1:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -13438,7 +13546,7 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
     </row>
-    <row r="12" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -13455,7 +13563,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="28" t="s">
@@ -13479,7 +13587,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="4"/>
@@ -13497,7 +13605,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="4"/>
@@ -13513,7 +13621,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="4"/>
@@ -13529,7 +13637,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="4"/>
@@ -13545,7 +13653,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="4"/>
@@ -13561,7 +13669,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="4"/>
@@ -13577,7 +13685,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="4"/>
@@ -13595,7 +13703,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="4"/>
@@ -13611,7 +13719,7 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="4"/>
@@ -13627,7 +13735,7 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="4"/>
@@ -13643,7 +13751,7 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="4"/>
@@ -13659,7 +13767,7 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="4"/>
@@ -13675,7 +13783,7 @@
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="4"/>
@@ -13691,7 +13799,7 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="4"/>
@@ -13707,7 +13815,7 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="4"/>
@@ -13723,7 +13831,7 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="4"/>
@@ -13739,7 +13847,7 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="4"/>
@@ -13755,7 +13863,7 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
     </row>
-    <row r="31" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="5"/>
@@ -13771,7 +13879,7 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
     </row>
-    <row r="32" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -13787,7 +13895,7 @@
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
     </row>
-    <row r="33" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -13807,7 +13915,7 @@
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -13823,7 +13931,7 @@
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -13839,7 +13947,7 @@
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -13855,7 +13963,7 @@
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -13871,7 +13979,7 @@
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -13887,7 +13995,7 @@
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -13903,7 +14011,7 @@
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -13919,7 +14027,7 @@
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -13935,7 +14043,7 @@
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -13951,7 +14059,7 @@
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -13967,7 +14075,7 @@
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -13983,7 +14091,7 @@
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -13999,7 +14107,7 @@
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -14015,7 +14123,7 @@
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -14031,7 +14139,7 @@
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -14047,7 +14155,7 @@
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -14063,7 +14171,7 @@
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -14079,7 +14187,7 @@
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -14095,15 +14203,15 @@
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
     </row>

--- a/public_html/time/youngminko_timesheet.xlsx
+++ b/public_html/time/youngminko_timesheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masonko/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADA9DD4-3655-1E4C-A143-0019A7598729}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D22B53E-160D-8C4D-8177-693DDADEA853}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="23540" tabRatio="748" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" tabRatio="748" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="17" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="72">
   <si>
     <t>Status</t>
   </si>
@@ -228,6 +228,33 @@
   </si>
   <si>
     <t>FEB-08-2019</t>
+  </si>
+  <si>
+    <t>FEB-14-2019</t>
+  </si>
+  <si>
+    <t>FEB-16-2019</t>
+  </si>
+  <si>
+    <t>FEB-17-2019</t>
+  </si>
+  <si>
+    <t>Learned how to make mock-ups using WordPress website</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Completed the first three Mock-ups </t>
+  </si>
+  <si>
+    <t>Make progress in Use Case Specification</t>
+  </si>
+  <si>
+    <t>Update Final Document 'Table of contents'</t>
+  </si>
+  <si>
+    <t>Posted On:     2019-02-18</t>
+  </si>
+  <si>
+    <t>Name:           Youngmin Ko</t>
   </si>
 </sst>
 </file>
@@ -6111,7 +6138,7 @@
       </c>
       <c r="F14" s="41">
         <f>'Jan-21'!F33+'Jan-28'!F33+'Feb-04'!F33+'Feb-11'!F33+'Feb-17'!F33+'Feb-25'!F33+'Mar-11'!F33+'Mar-18'!F33+'Mar-25'!F33+'Apr-01'!F33+'Apr-08'!F33</f>
-        <v>12.833333333333334</v>
+        <v>17.833333333333336</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -8439,8 +8466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="168" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="C1" zoomScale="168" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -9437,7 +9464,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:U54"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="190" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -9549,8 +9578,8 @@
     <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="23"/>
-      <c r="C5" s="16" t="s">
-        <v>14</v>
+      <c r="C5" s="50" t="s">
+        <v>52</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
@@ -9596,8 +9625,8 @@
     <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="23"/>
-      <c r="C7" s="16" t="s">
-        <v>17</v>
+      <c r="C7" s="50" t="s">
+        <v>70</v>
       </c>
       <c r="D7" s="32"/>
       <c r="E7" s="17"/>
@@ -9644,8 +9673,8 @@
     <row r="9" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="23"/>
-      <c r="C9" s="16" t="s">
-        <v>7</v>
+      <c r="C9" s="50" t="s">
+        <v>71</v>
       </c>
       <c r="D9" s="33"/>
       <c r="E9" s="17"/>
@@ -9758,11 +9787,17 @@
     <row r="14" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3" t="s">
-        <v>6</v>
+      <c r="C14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="3">
+        <v>60</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -9776,10 +9811,18 @@
     <row r="15" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="C15" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="3">
+        <v>150</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -9792,10 +9835,18 @@
     <row r="16" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="C16" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="3">
+        <v>30</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -9808,10 +9859,18 @@
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="C17" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="3">
+        <v>30</v>
+      </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -9824,10 +9883,18 @@
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="C18" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="3">
+        <v>30</v>
+      </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -10072,7 +10139,7 @@
       </c>
       <c r="F33" s="41">
         <f>SUM(F14:F31)/60</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>

--- a/public_html/time/youngminko_timesheet.xlsx
+++ b/public_html/time/youngminko_timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masonko/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D22B53E-160D-8C4D-8177-693DDADEA853}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DED63D0-EB58-E049-AE50-1ACD2A68E48A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" tabRatio="748" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" tabRatio="748" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="17" r:id="rId1"/>
@@ -32,6 +32,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="87">
   <si>
     <t>Status</t>
   </si>
@@ -255,6 +256,51 @@
   </si>
   <si>
     <t>Name:           Youngmin Ko</t>
+  </si>
+  <si>
+    <t>Posted On:         MAR.04.2019</t>
+  </si>
+  <si>
+    <t>Name:                 Youngmin Ko</t>
+  </si>
+  <si>
+    <t>Learned how to make mock-ups using FluidUI(found from 'Mockup Applications links (pdf) - Almost all links have a free trial' from official course website)</t>
+  </si>
+  <si>
+    <t>FEB-21-2019</t>
+  </si>
+  <si>
+    <t>FEB-22-2019</t>
+  </si>
+  <si>
+    <t>FEB-23-2019</t>
+  </si>
+  <si>
+    <t>Remaked mock-ups using FluidUI (previous mock-ups were made by WordPress.com)</t>
+  </si>
+  <si>
+    <t>FEB-24-2019</t>
+  </si>
+  <si>
+    <t>PRJ666 - Timesheet - Group __5_____</t>
+  </si>
+  <si>
+    <t>Posted On:        MAR.10.2019</t>
+  </si>
+  <si>
+    <t>Name:              Youngmin Ko</t>
+  </si>
+  <si>
+    <t>FEB-25-2019</t>
+  </si>
+  <si>
+    <t>FEB-26-2019</t>
+  </si>
+  <si>
+    <t>FEB-27-2019</t>
+  </si>
+  <si>
+    <t>make mock-ups using FluidUI</t>
   </si>
 </sst>
 </file>
@@ -6138,7 +6184,7 @@
       </c>
       <c r="F14" s="41">
         <f>'Jan-21'!F33+'Jan-28'!F33+'Feb-04'!F33+'Feb-11'!F33+'Feb-17'!F33+'Feb-25'!F33+'Mar-11'!F33+'Mar-18'!F33+'Mar-25'!F33+'Apr-01'!F33+'Apr-08'!F33</f>
-        <v>17.833333333333336</v>
+        <v>24.000000000000004</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -9464,8 +9510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:U54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView zoomScale="190" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -10462,7 +10508,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:U54"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="200" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -10574,8 +10622,8 @@
     <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="23"/>
-      <c r="C5" s="16" t="s">
-        <v>14</v>
+      <c r="C5" s="50" t="s">
+        <v>52</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
@@ -10621,8 +10669,8 @@
     <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="23"/>
-      <c r="C7" s="16" t="s">
-        <v>17</v>
+      <c r="C7" s="50" t="s">
+        <v>72</v>
       </c>
       <c r="D7" s="32"/>
       <c r="E7" s="17"/>
@@ -10669,8 +10717,8 @@
     <row r="9" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="23"/>
-      <c r="C9" s="16" t="s">
-        <v>7</v>
+      <c r="C9" s="50" t="s">
+        <v>73</v>
       </c>
       <c r="D9" s="33"/>
       <c r="E9" s="17"/>
@@ -10783,11 +10831,17 @@
     <row r="14" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3" t="s">
-        <v>6</v>
+      <c r="C14" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="3">
+        <v>60</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -10801,10 +10855,18 @@
     <row r="15" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="C15" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="3">
+        <v>60</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -10817,10 +10879,18 @@
     <row r="16" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="C16" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="3">
+        <v>30</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -10833,10 +10903,18 @@
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="C17" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="3">
+        <v>10</v>
+      </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -11097,7 +11175,7 @@
       </c>
       <c r="F33" s="41">
         <f>SUM(F14:F31)/60</f>
-        <v>0</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -11420,7 +11498,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:U54"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="183" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -11532,8 +11612,8 @@
     <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="23"/>
-      <c r="C5" s="16" t="s">
-        <v>14</v>
+      <c r="C5" s="50" t="s">
+        <v>80</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
@@ -11579,8 +11659,8 @@
     <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="23"/>
-      <c r="C7" s="16" t="s">
-        <v>17</v>
+      <c r="C7" s="50" t="s">
+        <v>81</v>
       </c>
       <c r="D7" s="32"/>
       <c r="E7" s="17"/>
@@ -11627,8 +11707,8 @@
     <row r="9" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="23"/>
-      <c r="C9" s="16" t="s">
-        <v>7</v>
+      <c r="C9" s="50" t="s">
+        <v>82</v>
       </c>
       <c r="D9" s="33"/>
       <c r="E9" s="17"/>
@@ -11741,11 +11821,17 @@
     <row r="14" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3" t="s">
-        <v>6</v>
+      <c r="C14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="3">
+        <v>150</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -11759,10 +11845,18 @@
     <row r="15" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="C15" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="3">
+        <v>30</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -11775,10 +11869,18 @@
     <row r="16" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="C16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="3">
+        <v>30</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -12055,7 +12157,7 @@
       </c>
       <c r="F33" s="41">
         <f>SUM(F14:F31)/60</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>

--- a/public_html/time/youngminko_timesheet.xlsx
+++ b/public_html/time/youngminko_timesheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masonko/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DED63D0-EB58-E049-AE50-1ACD2A68E48A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7BF7A8-78BD-B545-8071-3B31E3B1659E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" tabRatio="748" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" tabRatio="748" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="17" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="92">
   <si>
     <t>Status</t>
   </si>
@@ -301,6 +301,21 @@
   </si>
   <si>
     <t>make mock-ups using FluidUI</t>
+  </si>
+  <si>
+    <t>Posted On:             MAR-18-2019</t>
+  </si>
+  <si>
+    <t>Name:              YOUNGMIN KO</t>
+  </si>
+  <si>
+    <t>MAR-16-2019</t>
+  </si>
+  <si>
+    <t>MAR-17-2019</t>
+  </si>
+  <si>
+    <t>Update 'Meeting Minutes' and 'Progress Report' documents</t>
   </si>
 </sst>
 </file>
@@ -6184,7 +6199,7 @@
       </c>
       <c r="F14" s="41">
         <f>'Jan-21'!F33+'Jan-28'!F33+'Feb-04'!F33+'Feb-11'!F33+'Feb-17'!F33+'Feb-25'!F33+'Mar-11'!F33+'Mar-18'!F33+'Mar-25'!F33+'Apr-01'!F33+'Apr-08'!F33</f>
-        <v>24.000000000000004</v>
+        <v>27.750000000000004</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -11498,8 +11513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:U54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="183" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView zoomScale="183" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -12480,7 +12495,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:U54"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="191" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -12592,8 +12609,8 @@
     <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="23"/>
-      <c r="C5" s="16" t="s">
-        <v>14</v>
+      <c r="C5" s="50" t="s">
+        <v>52</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
@@ -12639,8 +12656,8 @@
     <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="23"/>
-      <c r="C7" s="16" t="s">
-        <v>17</v>
+      <c r="C7" s="50" t="s">
+        <v>87</v>
       </c>
       <c r="D7" s="32"/>
       <c r="E7" s="17"/>
@@ -12687,8 +12704,8 @@
     <row r="9" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="23"/>
-      <c r="C9" s="16" t="s">
-        <v>7</v>
+      <c r="C9" s="50" t="s">
+        <v>88</v>
       </c>
       <c r="D9" s="33"/>
       <c r="E9" s="17"/>
@@ -12801,11 +12818,17 @@
     <row r="14" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3" t="s">
-        <v>6</v>
+      <c r="C14" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="3">
+        <v>180</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -12819,10 +12842,18 @@
     <row r="15" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="C15" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="3">
+        <v>30</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -12835,10 +12866,18 @@
     <row r="16" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="C16" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="3">
+        <v>15</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -13115,7 +13154,7 @@
       </c>
       <c r="F33" s="41">
         <f>SUM(F14:F31)/60</f>
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>

--- a/public_html/time/youngminko_timesheet.xlsx
+++ b/public_html/time/youngminko_timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masonko/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7BF7A8-78BD-B545-8071-3B31E3B1659E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DDED7D-2CD3-024E-A473-E1F48FD806E9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" tabRatio="748" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="38400" windowHeight="23540" tabRatio="748" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="17" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="105">
   <si>
     <t>Status</t>
   </si>
@@ -316,6 +316,45 @@
   </si>
   <si>
     <t>Update 'Meeting Minutes' and 'Progress Report' documents</t>
+  </si>
+  <si>
+    <t>Posted On:            MAR 25 2019</t>
+  </si>
+  <si>
+    <t>Name:            YOUNGMIN KO</t>
+  </si>
+  <si>
+    <t>MAR-24-2019</t>
+  </si>
+  <si>
+    <t>Update Final Document 'Table of contents' with all new contents</t>
+  </si>
+  <si>
+    <t>MAR-21-2019</t>
+  </si>
+  <si>
+    <t>Posted On:   APR.01.2019</t>
+  </si>
+  <si>
+    <t>Name:    Youngmin Ko</t>
+  </si>
+  <si>
+    <t>MAR-28-2019</t>
+  </si>
+  <si>
+    <t>MAR-30-2019</t>
+  </si>
+  <si>
+    <t>MAR-31-2019</t>
+  </si>
+  <si>
+    <t>Final Document 8.01 - Implementation schedule for PRJ666</t>
+  </si>
+  <si>
+    <t>APR-01-2019</t>
+  </si>
+  <si>
+    <t>Create MS Project Implementation schedule for PRJ666</t>
   </si>
 </sst>
 </file>
@@ -3002,7 +3041,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:U54"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="186" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3114,8 +3155,8 @@
     <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="23"/>
-      <c r="C5" s="16" t="s">
-        <v>14</v>
+      <c r="C5" s="50" t="s">
+        <v>52</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
@@ -3161,8 +3202,8 @@
     <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="23"/>
-      <c r="C7" s="16" t="s">
-        <v>17</v>
+      <c r="C7" s="50" t="s">
+        <v>97</v>
       </c>
       <c r="D7" s="32"/>
       <c r="E7" s="17"/>
@@ -3209,8 +3250,8 @@
     <row r="9" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="23"/>
-      <c r="C9" s="16" t="s">
-        <v>7</v>
+      <c r="C9" s="50" t="s">
+        <v>98</v>
       </c>
       <c r="D9" s="33"/>
       <c r="E9" s="17"/>
@@ -3323,11 +3364,17 @@
     <row r="14" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3" t="s">
-        <v>6</v>
+      <c r="C14" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="3">
+        <v>180</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -3341,10 +3388,18 @@
     <row r="15" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="C15" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="3">
+        <v>20</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -3357,10 +3412,18 @@
     <row r="16" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="C16" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="3">
+        <v>10</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -3373,10 +3436,18 @@
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="C17" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="3">
+        <v>15</v>
+      </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -3637,7 +3708,7 @@
       </c>
       <c r="F33" s="41">
         <f>SUM(F14:F31)/60</f>
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -6199,7 +6270,7 @@
       </c>
       <c r="F14" s="41">
         <f>'Jan-21'!F33+'Jan-28'!F33+'Feb-04'!F33+'Feb-11'!F33+'Feb-17'!F33+'Feb-25'!F33+'Mar-11'!F33+'Mar-18'!F33+'Mar-25'!F33+'Apr-01'!F33+'Apr-08'!F33</f>
-        <v>27.750000000000004</v>
+        <v>34</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -12495,7 +12566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:U54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="191" workbookViewId="0">
+    <sheetView zoomScale="191" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -13477,7 +13548,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:U54"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="200" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -13589,8 +13662,8 @@
     <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="23"/>
-      <c r="C5" s="16" t="s">
-        <v>14</v>
+      <c r="C5" s="50" t="s">
+        <v>80</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
@@ -13636,8 +13709,8 @@
     <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="23"/>
-      <c r="C7" s="16" t="s">
-        <v>17</v>
+      <c r="C7" s="50" t="s">
+        <v>92</v>
       </c>
       <c r="D7" s="32"/>
       <c r="E7" s="17"/>
@@ -13684,8 +13757,8 @@
     <row r="9" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="23"/>
-      <c r="C9" s="16" t="s">
-        <v>7</v>
+      <c r="C9" s="50" t="s">
+        <v>93</v>
       </c>
       <c r="D9" s="33"/>
       <c r="E9" s="17"/>
@@ -13798,11 +13871,17 @@
     <row r="14" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3" t="s">
-        <v>6</v>
+      <c r="C14" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="3">
+        <v>120</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -13816,10 +13895,18 @@
     <row r="15" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="C15" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="3">
+        <v>20</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -13832,10 +13919,18 @@
     <row r="16" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="C16" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="3">
+        <v>10</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -14112,7 +14207,7 @@
       </c>
       <c r="F33" s="41">
         <f>SUM(F14:F31)/60</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
